--- a/template.xlsx
+++ b/template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>SALES ORDER</t>
   </si>
@@ -74,6 +74,34 @@
   </si>
   <si>
     <t>Cases</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>8/64 oz Suntropics Mango Nectar</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>8/64 oz Suntropics Guava Nectar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/64 oz  Suntropics Calamansi - </t>
+  </si>
+  <si>
+    <t>8/64 oz  Suntropics Passion OJ Guava 100% Juice</t>
   </si>
   <si>
     <t>CODING INSTRUCTIONS:</t>
@@ -231,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -407,6 +435,36 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -439,7 +497,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -545,6 +603,9 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="59" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -555,6 +616,18 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -563,13 +636,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="6" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="6" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -611,10 +684,10 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -664,13 +737,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>86990</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57599</xdr:rowOff>
+      <xdr:rowOff>57598</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>743396</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>67500</xdr:rowOff>
+      <xdr:rowOff>67499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -689,7 +762,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="86990" y="57599"/>
+          <a:off x="86990" y="57598"/>
           <a:ext cx="2332807" cy="1076702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -839,13 +912,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -916,7 +983,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -934,19 +1001,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1192,13 +1259,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1473,7 +1534,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1491,19 +1552,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2137,10 +2198,10 @@
       <c r="C26" t="s" s="10">
         <v>2</v>
       </c>
-      <c r="D26" t="s" s="10">
-        <v>2</v>
-      </c>
-      <c r="E26" s="35"/>
+      <c r="D26" t="s" s="35">
+        <v>21</v>
+      </c>
+      <c r="E26" s="36"/>
       <c r="F26" t="s" s="10">
         <v>2</v>
       </c>
@@ -2152,20 +2213,20 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" t="s" s="36">
+      <c r="A27" t="s" s="37">
         <v>2</v>
       </c>
-      <c r="B27" t="s" s="37">
+      <c r="B27" t="s" s="38">
         <v>20</v>
       </c>
-      <c r="C27" t="s" s="36">
+      <c r="C27" t="s" s="37">
         <v>2</v>
       </c>
-      <c r="D27" t="s" s="36">
-        <v>2</v>
-      </c>
-      <c r="E27" s="38"/>
-      <c r="F27" t="s" s="36">
+      <c r="D27" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" t="s" s="37">
         <v>2</v>
       </c>
       <c r="G27" t="s" s="10">
@@ -2176,23 +2237,23 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" t="s" s="36">
+      <c r="A28" t="s" s="37">
         <v>2</v>
       </c>
-      <c r="B28" t="s" s="37">
+      <c r="B28" t="s" s="38">
         <v>20</v>
       </c>
-      <c r="C28" t="s" s="36">
+      <c r="C28" t="s" s="37">
         <v>2</v>
       </c>
-      <c r="D28" t="s" s="36">
+      <c r="D28" t="s" s="35">
+        <v>23</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" t="s" s="37">
         <v>2</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" t="s" s="36">
-        <v>2</v>
-      </c>
-      <c r="G28" t="s" s="36">
+      <c r="G28" t="s" s="37">
         <v>2</v>
       </c>
       <c r="H28" s="13"/>
@@ -2200,23 +2261,23 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" t="s" s="36">
+      <c r="A29" t="s" s="37">
         <v>2</v>
       </c>
-      <c r="B29" t="s" s="37">
+      <c r="B29" t="s" s="38">
         <v>20</v>
       </c>
-      <c r="C29" t="s" s="36">
+      <c r="C29" t="s" s="40">
         <v>2</v>
       </c>
-      <c r="D29" t="s" s="36">
+      <c r="D29" t="s" s="41">
+        <v>24</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" t="s" s="37">
         <v>2</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" t="s" s="36">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s" s="36">
+      <c r="G29" t="s" s="37">
         <v>2</v>
       </c>
       <c r="H29" s="13"/>
@@ -2224,19 +2285,19 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" t="s" s="36">
+      <c r="A30" t="s" s="37">
         <v>2</v>
       </c>
-      <c r="B30" t="s" s="37">
+      <c r="B30" t="s" s="38">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="9"/>
-      <c r="E30" t="s" s="39">
+      <c r="D30" s="43"/>
+      <c r="E30" t="s" s="44">
         <v>19</v>
       </c>
-      <c r="F30" s="40"/>
-      <c r="G30" t="s" s="41">
+      <c r="F30" s="45"/>
+      <c r="G30" t="s" s="46">
         <v>2</v>
       </c>
       <c r="H30" s="13"/>
@@ -2248,25 +2309,25 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="43"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="44"/>
+        <v>26</v>
+      </c>
+      <c r="F32" s="45"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="2"/>
@@ -2276,23 +2337,23 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="44"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" t="s" s="36">
-        <v>23</v>
-      </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
+      <c r="A34" t="s" s="37">
+        <v>27</v>
+      </c>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="2"/>
@@ -2302,9 +2363,9 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="44"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="49"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="2"/>
@@ -2314,25 +2375,25 @@
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="44"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="49"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" t="s" s="37">
-        <v>24</v>
+      <c r="A37" t="s" s="38">
+        <v>28</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" t="s" s="47">
-        <v>25</v>
-      </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="44"/>
+      <c r="E37" t="s" s="52">
+        <v>29</v>
+      </c>
+      <c r="F37" s="45"/>
+      <c r="G37" s="49"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="2"/>
@@ -2342,8 +2403,8 @@
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" t="s" s="48">
-        <v>26</v>
+      <c r="E38" t="s" s="53">
+        <v>30</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="7"/>
@@ -2352,43 +2413,43 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="49"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" t="s" s="50">
-        <v>27</v>
-      </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="52"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" t="s" s="55">
+        <v>31</v>
+      </c>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="57"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="49"/>
-      <c r="B40" s="53"/>
-      <c r="C40" t="s" s="50">
-        <v>28</v>
-      </c>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="58"/>
+      <c r="C40" t="s" s="55">
+        <v>32</v>
+      </c>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" ht="31.5" customHeight="1">
       <c r="A41" s="7"/>
-      <c r="B41" t="s" s="55">
-        <v>29</v>
-      </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
+      <c r="B41" t="s" s="60">
+        <v>33</v>
+      </c>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="2"/>
@@ -2398,7 +2459,7 @@
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="57"/>
+      <c r="E42" s="62"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="13"/>
@@ -2410,8 +2471,8 @@
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="E43" t="s" s="58">
-        <v>30</v>
+      <c r="E43" t="s" s="63">
+        <v>34</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -2420,24 +2481,24 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="59"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="64"/>
       <c r="G44" s="2"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="2"/>
     </row>
     <row r="45" ht="12" customHeight="1">
-      <c r="A45" s="49"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="59"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="64"/>
       <c r="G45" s="2"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
@@ -2448,8 +2509,8 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="61"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="66"/>
       <c r="G46" s="2"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
@@ -2460,7 +2521,7 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="62"/>
+      <c r="E47" s="67"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="13"/>
@@ -2472,8 +2533,8 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="61"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="66"/>
       <c r="G48" s="2"/>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
